--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -260,7 +260,203 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3747,6 +3943,18 @@
                 <c:pt idx="2">
                   <c:v>190635</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3908,6 +4116,18 @@
                 <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4094,6 +4314,18 @@
                       <c:pt idx="2">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4266,6 +4498,18 @@
                       </c:pt>
                       <c:pt idx="2" formatCode="General">
                         <c:v>13.002000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>0.72499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>8.7750000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>89.37</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>169.761</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4709,6 +4953,18 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>510.63499999999999</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>89.37</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>169.761</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4919,6 +5175,18 @@
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5128,9 +5396,6 @@
                       <c:pt idx="7">
                         <c:v>100000</c:v>
                       </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1000000</c:v>
-                      </c:pt>
                       <c:pt idx="9">
                         <c:v>100000</c:v>
                       </c:pt>
@@ -5340,6 +5605,18 @@
                       <c:pt idx="3">
                         <c:v>1850203</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1527</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17733</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>184126</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>181561</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5536,6 +5813,18 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8303,7 +8592,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8828,138 +9117,138 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 E8 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="69" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 F12:F14">
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8974,19 +9263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
@@ -9155,14 +9444,22 @@
       <c r="D8" s="8">
         <v>100</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F15" si="1">C8</f>
         <v>1000</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="8">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1527</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -9174,14 +9471,22 @@
       <c r="D9" s="8">
         <v>100</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="8">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="H9" s="8">
+        <v>17733</v>
+      </c>
+      <c r="I9" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
@@ -9193,14 +9498,22 @@
       <c r="D10" s="8">
         <v>100</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="8">
+        <v>89.37</v>
+      </c>
+      <c r="H10" s="8">
+        <v>184126</v>
+      </c>
+      <c r="I10" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
@@ -9213,10 +9526,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -9231,14 +9541,22 @@
       <c r="D12" s="8">
         <v>250</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
+        <f>C12</f>
         <v>100000</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="8">
+        <v>169.761</v>
+      </c>
+      <c r="H12" s="8">
+        <v>181561</v>
+      </c>
+      <c r="I12" s="8">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
@@ -9436,131 +9754,155 @@
       <c r="E32" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E16:F27 E8 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 F12:F14">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Guloso" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -147,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -250,7 +249,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,189 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill>
@@ -1587,8 +1404,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171361408"/>
-        <c:axId val="171361016"/>
+        <c:axId val="206213416"/>
+        <c:axId val="124034144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1977,7 +1794,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171361408"/>
+        <c:axId val="206213416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +1837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171361016"/>
+        <c:crossAx val="124034144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2028,7 +1845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171361016"/>
+        <c:axId val="124034144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +1896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171361408"/>
+        <c:crossAx val="206213416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2200,7 +2017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2449,8 +2265,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171360232"/>
-        <c:axId val="171359840"/>
+        <c:axId val="207141528"/>
+        <c:axId val="207376496"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2680,7 +2496,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$F$2</c15:sqref>
@@ -2707,7 +2523,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
@@ -2844,7 +2660,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$F$3:$F$15</c15:sqref>
@@ -2904,7 +2720,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$H$2</c15:sqref>
@@ -2931,7 +2747,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
@@ -3068,7 +2884,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$H$3:$H$15</c15:sqref>
@@ -3125,7 +2941,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$I$2</c15:sqref>
@@ -3152,7 +2968,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
@@ -3289,7 +3105,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Profundidade!$I$3:$I$15</c15:sqref>
@@ -3344,7 +3160,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171360232"/>
+        <c:axId val="207141528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +3203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171359840"/>
+        <c:crossAx val="207376496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3395,7 +3211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171359840"/>
+        <c:axId val="207376496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171360232"/>
+        <c:crossAx val="207141528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3460,7 +3276,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3955,6 +3770,12 @@
                 <c:pt idx="6">
                   <c:v>181561</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>187086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4128,6 +3949,12 @@
                 <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4142,8 +3969,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="228147328"/>
-        <c:axId val="313147600"/>
+        <c:axId val="206765128"/>
+        <c:axId val="207013144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4326,6 +4153,12 @@
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4337,7 +4170,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$G$2</c15:sqref>
@@ -4511,6 +4344,12 @@
                       <c:pt idx="6" formatCode="General">
                         <c:v>169.761</c:v>
                       </c:pt>
+                      <c:pt idx="7" formatCode="#,##0">
+                        <c:v>246691</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>498.404</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4520,7 +4359,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228147328"/>
+        <c:axId val="206765128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313147600"/>
+        <c:crossAx val="207013144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,7 +4410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313147600"/>
+        <c:axId val="207013144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228147328"/>
+        <c:crossAx val="206765128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4743,7 +4582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4962,8 +4800,17 @@
                 <c:pt idx="7" formatCode="General">
                   <c:v>89.37</c:v>
                 </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>859.178</c:v>
+                </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>169.761</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>246691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>498.404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,8 +4826,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313148776"/>
-        <c:axId val="313149168"/>
+        <c:axId val="206446960"/>
+        <c:axId val="208006400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5184,7 +5031,16 @@
                       <c:pt idx="7">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
                       <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5198,7 +5054,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$F$2</c15:sqref>
@@ -5225,7 +5081,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
@@ -5362,7 +5218,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$F$3:$F$15</c15:sqref>
@@ -5419,7 +5275,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$H$2</c15:sqref>
@@ -5446,7 +5302,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
@@ -5583,7 +5439,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$H$3:$H$15</c15:sqref>
@@ -5614,8 +5470,17 @@
                       <c:pt idx="7">
                         <c:v>184126</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1813431</c:v>
+                      </c:pt>
                       <c:pt idx="9">
                         <c:v>181561</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>187086</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>181768</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5628,7 +5493,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$I$2</c15:sqref>
@@ -5655,7 +5520,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
@@ -5792,7 +5657,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Largura!$I$3:$I$15</c15:sqref>
@@ -5823,8 +5688,17 @@
                       <c:pt idx="7">
                         <c:v>15</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
                       <c:pt idx="9">
                         <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>18</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5835,7 +5709,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313148776"/>
+        <c:axId val="206446960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5878,7 +5752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313149168"/>
+        <c:crossAx val="208006400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5886,7 +5760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313149168"/>
+        <c:axId val="208006400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5937,7 +5811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313148776"/>
+        <c:crossAx val="206446960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,7 +5825,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8592,7 +8465,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9117,138 +8990,138 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 E8 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="81" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 F12:F14">
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="61" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9264,7 +9137,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9525,11 +9398,19 @@
       <c r="D11" s="8">
         <v>100</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="8">
+        <v>859.178</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1813431</v>
+      </c>
+      <c r="I11" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
@@ -9568,14 +9449,22 @@
       <c r="D13" s="8">
         <v>500</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="9">
+        <v>246691</v>
+      </c>
+      <c r="H13" s="8">
+        <v>187086</v>
+      </c>
+      <c r="I13" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
@@ -9587,14 +9476,22 @@
       <c r="D14" s="8">
         <v>1000</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="10">
+        <v>498.404</v>
+      </c>
+      <c r="H14" s="8">
+        <v>181768</v>
+      </c>
+      <c r="I14" s="8">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
@@ -9755,154 +9652,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Profundidade" sheetId="1" r:id="rId1"/>
     <sheet name="Largura" sheetId="4" r:id="rId2"/>
-    <sheet name="Guloso" sheetId="3" r:id="rId3"/>
+    <sheet name="Guloso" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -93,8 +93,234 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Januzi, Rafael</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tamanho da memória para armazenar os últimos nós já visitados. (Sem repetição)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algumas vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algumas vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Januzi, Rafael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -132,23 +358,42 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>3814000 (Overflow)</t>
-  </si>
-  <si>
     <t>widthSearch_v1</t>
   </si>
   <si>
     <t>widthSearch_v2</t>
+  </si>
+  <si>
+    <t>3082000 (Memory Error)</t>
+  </si>
+  <si>
+    <t>3770000 (Memory Error)</t>
+  </si>
+  <si>
+    <t>greedySearch_v1</t>
+  </si>
+  <si>
+    <t>Max Quality</t>
+  </si>
+  <si>
+    <t>Last Quality</t>
+  </si>
+  <si>
+    <t>greedySearch_v2</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +428,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,20 +497,457 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="134">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -855,367 +1543,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Profundidade!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nodes Inspected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Profundidade!$B$3:$D$5,Profundidade!$B$8:$D$10,Profundidade!$B$12:$D$15)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>250</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Profundidade!$F$3:$F$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Profundidade!$F$3:$F$5,Profundidade!$F$8:$F$10,Profundidade!$F$12:$F$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Profundidade!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Waiting Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Profundidade!$B$3:$D$5,Profundidade!$B$8:$D$10,Profundidade!$B$12:$D$15)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>250</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>deepSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>deepSearch_v2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Profundidade!$H$3:$H$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Profundidade!$H$3:$H$5,Profundidade!$H$8:$H$10,Profundidade!$H$12:$H$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>149998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7364</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73542</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78434</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
@@ -1379,7 +1706,7 @@
                   <c:v>9998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99998</c:v>
+                  <c:v>99999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>99345</c:v>
@@ -1388,7 +1715,7 @@
                   <c:v>99346</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99346</c:v>
+                  <c:v>99310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,8 +1731,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="206213416"/>
-        <c:axId val="124034144"/>
+        <c:axId val="190426240"/>
+        <c:axId val="190426632"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1601,6 +1928,200 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Profundidade!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nodes Inspected</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Profundidade!$B$3:$D$5,Profundidade!$B$8:$D$10,Profundidade!$B$12:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="10"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Profundidade!$F$3:$F$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Profundidade!$F$3:$F$5,Profundidade!$F$8:$F$10,Profundidade!$F$12:$F$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:tx>
@@ -1759,31 +2280,222 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>0.20799999999999999</c:v>
+                        <c:v>0.53600000000000003</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.129</c:v>
+                        <c:v>1.1859999999999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.098000000000001</c:v>
+                        <c:v>10.132</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.72099999999999997</c:v>
+                        <c:v>0.96899999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.000">
+                        <c:v>5.57</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>54.847000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>119.876</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="#,##0.000">
+                        <c:v>240.31700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>446.04899999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Profundidade!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Waiting Nodes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Profundidade!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Profundidade!$B$3:$D$5,Profundidade!$B$8:$D$10,Profundidade!$B$12:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="10"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>deepSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>deepSearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Profundidade!$H$3:$H$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Profundidade!$H$3:$H$5,Profundidade!$H$8:$H$10,Profundidade!$H$12:$H$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1498</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>149999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>743</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6.4450000000000003</c:v>
+                        <c:v>7364</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>56.575000000000003</c:v>
+                        <c:v>73542</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>119.86499999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="#,##0">
-                        <c:v>234379</c:v>
+                        <c:v>78431</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>78432</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>479.66399999999999</c:v>
+                        <c:v>78183</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1794,7 +2506,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206213416"/>
+        <c:axId val="190426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +2549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124034144"/>
+        <c:crossAx val="190426632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +2557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124034144"/>
+        <c:axId val="190426632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +2608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206213416"/>
+        <c:crossAx val="190426240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2017,6 +2729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2216,40 +2929,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.129</c:v>
+                  <c:v>1.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.098000000000001</c:v>
+                  <c:v>10.132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.61199999999999</c:v>
+                  <c:v>102.169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1087.6389999999999</c:v>
+                  <c:v>362.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72099999999999997</c:v>
+                  <c:v>0.96899999999999997</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4450000000000003</c:v>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.575000000000003</c:v>
+                  <c:v>54.847000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564.36199999999997</c:v>
+                  <c:v>577.46900000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119.86499999999999</c:v>
+                  <c:v>119.876</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>234379</c:v>
+                <c:pt idx="10" formatCode="#,##0.000">
+                  <c:v>240.31700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>479.66399999999999</c:v>
+                  <c:v>446.04899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,8 +2978,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207141528"/>
-        <c:axId val="207376496"/>
+        <c:axId val="190427416"/>
+        <c:axId val="190427808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2895,22 +3608,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>1500</c:v>
+                        <c:v>1498</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>15001</c:v>
+                        <c:v>14998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>149998</c:v>
+                        <c:v>149999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1499998</c:v>
+                        <c:v>1499999</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5721000</c:v>
+                        <c:v>5655000</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>744</c:v>
+                        <c:v>743</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>7364</c:v>
@@ -2919,16 +3632,16 @@
                         <c:v>73542</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>735301</c:v>
+                        <c:v>735306</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>78434</c:v>
+                        <c:v>78431</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>78432</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>75197</c:v>
+                        <c:v>78183</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3128,7 +3841,7 @@
                         <c:v>999999</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3813999</c:v>
+                        <c:v>3769999</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>999</c:v>
@@ -3137,7 +3850,7 @@
                         <c:v>9998</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>99998</c:v>
+                        <c:v>99999</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>999999</c:v>
@@ -3149,7 +3862,7 @@
                         <c:v>99346</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>99346</c:v>
+                        <c:v>99310</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3160,7 +3873,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207141528"/>
+        <c:axId val="190427416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207376496"/>
+        <c:crossAx val="190427808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3211,7 +3924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207376496"/>
+        <c:axId val="190427808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207141528"/>
+        <c:crossAx val="190427416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3276,6 +3989,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3420,367 +4134,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Largura!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nodes Inspected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$B$3:$D$5,Largura!$B$8:$D$10,Largura!$B$12:$D$15)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>250</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$F$3:$F$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$F$3:$F$5,Largura!$F$8:$F$10,Largura!$F$12:$F$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Largura!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Waiting Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$B$3:$D$5,Largura!$B$8:$D$10,Largura!$B$12:$D$15)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>250</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>widthSearch_v1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$H$3:$H$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$H$3:$H$5,Largura!$H$8:$H$10,Largura!$H$12:$H$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1851</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18226</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190635</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17733</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184126</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>181561</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>187086</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>181768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
@@ -3806,16 +4159,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$B$3:$D$5,Largura!$B$8:$D$10,Largura!$B$12:$D$15)</c:f>
+              <c:f>Largura!$B$3:$D$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>N/A</c:v>
@@ -3827,24 +4173,33 @@
                     <c:v>N/A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>100</c:v>
+                    <c:v>N/A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>100</c:v>
+                    <c:v>N/A</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>100</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>250</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="10">
                     <c:v>500</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="11">
                     <c:v>1000</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>100000</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3859,24 +4214,33 @@
                     <c:v>100000</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10000000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>1000</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>10000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>100000</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100000</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>100000</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>100000</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>100000</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3891,10 +4255,10 @@
                     <c:v>widthSearch_v1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>widthSearch_v2</c:v>
+                    <c:v>widthSearch_v1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>widthSearch_v2</c:v>
+                    <c:v>widthSearch_v1</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>widthSearch_v2</c:v>
@@ -3909,6 +4273,15 @@
                     <c:v>widthSearch_v2</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>widthSearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widthSearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>widthSearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>widthSearch_v2</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3917,17 +4290,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Largura!$I$3:$I$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Largura!$I$3:$I$5,Largura!$I$8:$I$10,Largura!$I$12:$I$15)</c:f>
+              <c:f>Largura!$I$3:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3938,22 +4304,34 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,8 +4347,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="206765128"/>
-        <c:axId val="207013144"/>
+        <c:axId val="192445184"/>
+        <c:axId val="192445576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4008,16 +4386,13 @@
                   <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Largura!$B$3:$D$5,Largura!$B$8:$D$10,Largura!$B$12:$D$15)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="13"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -4029,24 +4404,33 @@
                           <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>100</c:v>
+                          <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>100</c:v>
+                          <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="5">
                           <c:v>100</c:v>
                         </c:pt>
                         <c:pt idx="6">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>250</c:v>
                         </c:pt>
-                        <c:pt idx="7">
+                        <c:pt idx="10">
                           <c:v>500</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="11">
                           <c:v>1000</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="12">
                           <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4061,24 +4445,33 @@
                           <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
                           <c:v>1000</c:v>
                         </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="6">
                           <c:v>10000</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>100000</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="7">
                           <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="8">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="10">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
                           <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4093,10 +4486,10 @@
                           <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>widthSearch_v2</c:v>
+                          <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>widthSearch_v2</c:v>
+                          <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="5">
                           <c:v>widthSearch_v2</c:v>
@@ -4111,6 +4504,15 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="9">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4121,17 +4523,14 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Largura!$E$3:$E$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Largura!$E$3:$E$5,Largura!$E$8:$E$10,Largura!$E$12:$E$15)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -4158,6 +4557,242 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nodes Inspected</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="13"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$F$3:$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>100000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4199,16 +4834,13 @@
                   <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Largura!$B$3:$D$5,Largura!$B$8:$D$10,Largura!$B$12:$D$15)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="13"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -4220,24 +4852,33 @@
                           <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>100</c:v>
+                          <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>100</c:v>
+                          <c:v>N/A</c:v>
                         </c:pt>
                         <c:pt idx="5">
                           <c:v>100</c:v>
                         </c:pt>
                         <c:pt idx="6">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>250</c:v>
                         </c:pt>
-                        <c:pt idx="7">
+                        <c:pt idx="10">
                           <c:v>500</c:v>
                         </c:pt>
-                        <c:pt idx="8">
+                        <c:pt idx="11">
                           <c:v>1000</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="12">
                           <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4252,24 +4893,33 @@
                           <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="3">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
                           <c:v>1000</c:v>
                         </c:pt>
-                        <c:pt idx="4">
+                        <c:pt idx="6">
                           <c:v>10000</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>100000</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="7">
                           <c:v>100000</c:v>
                         </c:pt>
                         <c:pt idx="8">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="9">
+                        <c:pt idx="10">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
                           <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4284,10 +4934,10 @@
                           <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>widthSearch_v2</c:v>
+                          <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>widthSearch_v2</c:v>
+                          <c:v>widthSearch_v1</c:v>
                         </c:pt>
                         <c:pt idx="5">
                           <c:v>widthSearch_v2</c:v>
@@ -4302,6 +4952,15 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="9">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -4312,43 +4971,276 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Largura!$G$3:$G$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Largura!$G$3:$G$5,Largura!$G$8:$G$10,Largura!$G$12:$G$15)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>#,##0.000</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0.317</c:v>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0.219</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.2490000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2" formatCode="General">
-                        <c:v>13.002000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3" formatCode="General">
+                        <c:v>1.1910000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.371</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>108.788</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>540.46199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.72499999999999998</c:v>
                       </c:pt>
-                      <c:pt idx="4" formatCode="General">
+                      <c:pt idx="6">
                         <c:v>8.7750000000000004</c:v>
                       </c:pt>
-                      <c:pt idx="5" formatCode="General">
+                      <c:pt idx="7" formatCode="0.000">
                         <c:v>89.37</c:v>
                       </c:pt>
-                      <c:pt idx="6" formatCode="General">
-                        <c:v>169.761</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="#,##0">
-                        <c:v>246691</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>498.404</c:v>
+                        <c:v>569.16200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131.339</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="#,##0.000">
+                        <c:v>241.81299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="#,##0.000">
+                        <c:v>447.12799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="#,##0.000">
+                        <c:v>13775.066999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Waiting Nodes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="13"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>10000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>widthSearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>widthSearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Largura!$H$3:$H$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>1860</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18827</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>179148</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1766528</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5536125</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1527</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17733</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>184126</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1794202</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>181388</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>180717</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>181624</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42570</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4359,7 +5251,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206765128"/>
+        <c:axId val="192445184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,7 +5294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207013144"/>
+        <c:crossAx val="192445576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4410,7 +5302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207013144"/>
+        <c:axId val="192445576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +5353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206765128"/>
+        <c:crossAx val="192445184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4582,6 +5474,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4644,9 +5537,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Largura!$B$3:$D$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Largura!$B$3:$D$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>N/A</c:v>
@@ -4683,9 +5583,6 @@
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>100000</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4725,9 +5622,6 @@
                   <c:pt idx="11">
                     <c:v>100000</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>100000</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4764,9 +5658,6 @@
                     <c:v>widthSearch_v2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>widthSearch_v2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>widthSearch_v2</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4775,42 +5666,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Largura!$G$3:$G$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Largura!$G$3:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Largura!$G$3:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.317</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2490000000000001</c:v>
+                  <c:v>1.1910000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>13.002000000000001</c:v>
+                <c:pt idx="2">
+                  <c:v>11.371</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>510.63499999999999</c:v>
+                <c:pt idx="3">
+                  <c:v>108.788</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="4">
+                  <c:v>540.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.72499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>8.7750000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7" formatCode="0.000">
                   <c:v>89.37</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>859.178</c:v>
+                <c:pt idx="8">
+                  <c:v>569.16200000000003</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>169.761</c:v>
+                <c:pt idx="9">
+                  <c:v>131.339</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>246691</c:v>
+                <c:pt idx="10" formatCode="#,##0.000">
+                  <c:v>241.81299999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>498.404</c:v>
+                <c:pt idx="11" formatCode="#,##0.000">
+                  <c:v>447.12799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4826,8 +5727,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="206446960"/>
-        <c:axId val="208006400"/>
+        <c:axId val="192447144"/>
+        <c:axId val="192447536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4865,13 +5766,16 @@
                   <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                          <c15:sqref>Largura!$B$3:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -4908,9 +5812,6 @@
                         </c:pt>
                         <c:pt idx="11">
                           <c:v>1000</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -4950,9 +5851,6 @@
                         <c:pt idx="11">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
-                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -4989,9 +5887,6 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="11">
-                          <c:v>widthSearch_v2</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -5002,14 +5897,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$E$3:$E$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$E$3:$E$15</c15:sqref>
+                          <c15:sqref>Largura!$E$3:$E$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -5020,6 +5918,9 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
@@ -5083,13 +5984,16 @@
                   <c:multiLvlStrRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                          <c15:sqref>Largura!$B$3:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -5126,9 +6030,6 @@
                         </c:pt>
                         <c:pt idx="11">
                           <c:v>1000</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -5168,9 +6069,6 @@
                         <c:pt idx="11">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
-                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5207,9 +6105,6 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="11">
-                          <c:v>widthSearch_v2</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -5220,14 +6115,17 @@
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$F$3:$F$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$F$3:$F$15</c15:sqref>
+                          <c15:sqref>Largura!$F$3:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -5241,7 +6139,7 @@
                         <c:v>1000000</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>10000000</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>1000</c:v>
@@ -5252,6 +6150,9 @@
                       <c:pt idx="7">
                         <c:v>100000</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
                       <c:pt idx="9">
                         <c:v>100000</c:v>
                       </c:pt>
@@ -5259,9 +6160,6 @@
                         <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
                         <c:v>100000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5304,13 +6202,16 @@
                   <c:multiLvlStrRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                          <c15:sqref>Largura!$B$3:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -5347,9 +6248,6 @@
                         </c:pt>
                         <c:pt idx="11">
                           <c:v>1000</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -5389,9 +6287,6 @@
                         <c:pt idx="11">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
-                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5428,9 +6323,6 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="11">
-                          <c:v>widthSearch_v2</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -5441,25 +6333,31 @@
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$H$3:$H$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$H$3:$H$15</c15:sqref>
+                          <c15:sqref>Largura!$H$3:$H$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>1851</c:v>
+                        <c:v>1860</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>18226</c:v>
+                        <c:v>18827</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>190635</c:v>
+                        <c:v>179148</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1850203</c:v>
+                        <c:v>1766528</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5536125</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>1527</c:v>
@@ -5471,16 +6369,16 @@
                         <c:v>184126</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1813431</c:v>
+                        <c:v>1794202</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>181561</c:v>
+                        <c:v>181388</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>187086</c:v>
+                        <c:v>180717</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>181768</c:v>
+                        <c:v>181624</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5522,13 +6420,16 @@
                   <c:multiLvlStrRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$B$3:$D$15</c15:sqref>
+                          <c15:sqref>Largura!$B$3:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:lvl>
                         <c:pt idx="0">
                           <c:v>N/A</c:v>
@@ -5565,9 +6466,6 @@
                         </c:pt>
                         <c:pt idx="11">
                           <c:v>1000</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -5607,9 +6505,6 @@
                         <c:pt idx="11">
                           <c:v>100000</c:v>
                         </c:pt>
-                        <c:pt idx="12">
-                          <c:v>100000</c:v>
-                        </c:pt>
                       </c:lvl>
                       <c:lvl>
                         <c:pt idx="0">
@@ -5646,9 +6541,6 @@
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                         <c:pt idx="11">
-                          <c:v>widthSearch_v2</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
                           <c:v>widthSearch_v2</c:v>
                         </c:pt>
                       </c:lvl>
@@ -5659,14 +6551,17 @@
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Largura!$I$3:$I$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Largura!$I$3:$I$15</c15:sqref>
+                          <c15:sqref>Largura!$I$3:$I$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -5678,6 +6573,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>10</c:v>
@@ -5709,7 +6607,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206446960"/>
+        <c:axId val="192447144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +6650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208006400"/>
+        <c:crossAx val="192447536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5760,7 +6658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208006400"/>
+        <c:axId val="192447536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +6709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206446960"/>
+        <c:crossAx val="192447144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5825,6 +6723,2043 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Experiments Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Guloso!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Guloso!$B$3:$D$3,Guloso!$B$8:$D$15)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>250</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>greedySearch_v1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Guloso!$H$3:$H$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Guloso!$H$3,Guloso!$H$8:$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="452523712"/>
+        <c:axId val="452524888"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Solution?</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$3,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$E$3:$E$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$E$3,Guloso!$E$8:$E$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nodes Inspected</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$3,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$F$3:$F$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$F$3,Guloso!$F$8:$F$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Time (s)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$3,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$G$3:$G$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$G$3,Guloso!$G$8:$G$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.63100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0.000">
+                        <c:v>0.64300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.224</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.081</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="#,##0.000">
+                        <c:v>0.49399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="#,##0.000">
+                        <c:v>1.075</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="#,##0.000">
+                        <c:v>1.462</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452523712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452524888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452524888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452523712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Experiments Time (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Guloso!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Guloso!$B$3:$D$4,Guloso!$B$8:$D$15)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>250</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1000000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>greedySearch_v1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>greedySearch_v1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>greedySearch_v2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Guloso!$G$3:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Guloso!$G$3:$G$4,Guloso!$G$8:$G$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.081</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.000">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.000">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.000">
+                  <c:v>1.462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="327138728"/>
+        <c:axId val="327139120"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Solution?</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$4,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="10"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$E$3:$E$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$E$3:$E$4,Guloso!$E$8:$E$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nodes Inspected</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$4,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="10"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$F$3:$F$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$F$3:$F$4,Guloso!$F$8:$F$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Guloso!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Max Depth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$B$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$B$3:$D$4,Guloso!$B$8:$D$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="10"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>N/A</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>100</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>250</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>500</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1000</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>10000</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>1000000</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>100000</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>greedySearch_v1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>greedySearch_v2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Guloso!$H$3:$H$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Guloso!$H$3:$H$4,Guloso!$H$8:$H$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>799</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1599</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>799</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>499</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>499</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="327138728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327139120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327139120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327138728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6051,6 +8986,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7561,6 +10576,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8173,6 +12194,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -8464,21 +12554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -8526,10 +12616,10 @@
         <v>1000</v>
       </c>
       <c r="G3" s="8">
-        <v>0.20799999999999999</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="H3" s="8">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I3" s="8">
         <v>999</v>
@@ -8553,10 +12643,10 @@
         <v>10000</v>
       </c>
       <c r="G4" s="8">
-        <v>1.129</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="H4" s="8">
-        <v>15001</v>
+        <v>14998</v>
       </c>
       <c r="I4" s="8">
         <v>9999</v>
@@ -8580,10 +12670,10 @@
         <v>100000</v>
       </c>
       <c r="G5" s="8">
-        <v>11.098000000000001</v>
+        <v>10.132</v>
       </c>
       <c r="H5" s="8">
-        <v>149998</v>
+        <v>149999</v>
       </c>
       <c r="I5" s="8">
         <v>99999</v>
@@ -8607,10 +12697,10 @@
         <v>1000000</v>
       </c>
       <c r="G6" s="8">
-        <v>100.61199999999999</v>
+        <v>102.169</v>
       </c>
       <c r="H6" s="8">
-        <v>1499998</v>
+        <v>1499999</v>
       </c>
       <c r="I6" s="8">
         <v>999999</v>
@@ -8629,17 +12719,17 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="8">
-        <v>1087.6389999999999</v>
+        <v>362.875</v>
       </c>
       <c r="H7" s="8">
-        <v>5721000</v>
+        <v>5655000</v>
       </c>
       <c r="I7" s="8">
-        <v>3813999</v>
+        <v>3769999</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -8660,10 +12750,10 @@
         <v>1000</v>
       </c>
       <c r="G8" s="8">
-        <v>0.72099999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="H8" s="8">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I8" s="8">
         <v>999</v>
@@ -8686,8 +12776,8 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G9" s="8">
-        <v>6.4450000000000003</v>
+      <c r="G9" s="11">
+        <v>5.57</v>
       </c>
       <c r="H9" s="8">
         <v>7364</v>
@@ -8714,13 +12804,13 @@
         <v>100000</v>
       </c>
       <c r="G10" s="8">
-        <v>56.575000000000003</v>
+        <v>54.847000000000001</v>
       </c>
       <c r="H10" s="8">
         <v>73542</v>
       </c>
       <c r="I10" s="8">
-        <v>99998</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -8741,10 +12831,10 @@
         <v>1000000</v>
       </c>
       <c r="G11" s="8">
-        <v>564.36199999999997</v>
+        <v>577.46900000000005</v>
       </c>
       <c r="H11" s="8">
-        <v>735301</v>
+        <v>735306</v>
       </c>
       <c r="I11" s="8">
         <v>999999</v>
@@ -8768,10 +12858,10 @@
         <v>100000</v>
       </c>
       <c r="G12" s="8">
-        <v>119.86499999999999</v>
+        <v>119.876</v>
       </c>
       <c r="H12" s="8">
-        <v>78434</v>
+        <v>78431</v>
       </c>
       <c r="I12" s="8">
         <v>99345</v>
@@ -8795,7 +12885,7 @@
         <v>100000</v>
       </c>
       <c r="G13" s="9">
-        <v>234379</v>
+        <v>240.31700000000001</v>
       </c>
       <c r="H13" s="8">
         <v>78432</v>
@@ -8822,13 +12912,13 @@
         <v>100000</v>
       </c>
       <c r="G14" s="8">
-        <v>479.66399999999999</v>
+        <v>446.04899999999998</v>
       </c>
       <c r="H14" s="8">
-        <v>75197</v>
+        <v>78183</v>
       </c>
       <c r="I14" s="8">
-        <v>99346</v>
+        <v>99310</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -8990,138 +13080,138 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 E8 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 F12:F14">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="17" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9136,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9147,8 +13237,8 @@
     <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
@@ -9182,7 +13272,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8">
         <v>1000</v>
@@ -9198,10 +13288,10 @@
         <v>1000</v>
       </c>
       <c r="G3" s="8">
-        <v>0.317</v>
+        <v>0.219</v>
       </c>
       <c r="H3" s="8">
-        <v>1851</v>
+        <v>1860</v>
       </c>
       <c r="I3" s="8">
         <v>7</v>
@@ -9209,7 +13299,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
         <v>10000</v>
@@ -9224,11 +13314,11 @@
         <f t="shared" ref="F4:F7" si="0">C4</f>
         <v>10000</v>
       </c>
-      <c r="G4" s="10">
-        <v>1.2490000000000001</v>
+      <c r="G4" s="8">
+        <v>1.1910000000000001</v>
       </c>
       <c r="H4" s="8">
-        <v>18226</v>
+        <v>18827</v>
       </c>
       <c r="I4" s="8">
         <v>9</v>
@@ -9236,7 +13326,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>100000</v>
@@ -9252,10 +13342,10 @@
         <v>100000</v>
       </c>
       <c r="G5" s="8">
-        <v>13.002000000000001</v>
+        <v>11.371</v>
       </c>
       <c r="H5" s="8">
-        <v>190635</v>
+        <v>179148</v>
       </c>
       <c r="I5" s="8">
         <v>11</v>
@@ -9263,7 +13353,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8">
         <v>1000000</v>
@@ -9279,10 +13369,10 @@
         <v>1000000</v>
       </c>
       <c r="G6" s="8">
-        <v>510.63499999999999</v>
+        <v>108.788</v>
       </c>
       <c r="H6" s="8">
-        <v>1850203</v>
+        <v>1766528</v>
       </c>
       <c r="I6" s="8">
         <v>13</v>
@@ -9290,7 +13380,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>10000000</v>
@@ -9298,18 +13388,25 @@
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8">
+        <v>540.46199999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5536125</v>
+      </c>
+      <c r="I7" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
         <v>1000</v>
@@ -9336,7 +13433,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
         <v>10000</v>
@@ -9363,7 +13460,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8">
         <v>100000</v>
@@ -9378,7 +13475,7 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>89.37</v>
       </c>
       <c r="H10" s="8">
@@ -9390,7 +13487,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>1000000</v>
@@ -9401,12 +13498,15 @@
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <f>C11</f>
+        <v>1000000</v>
+      </c>
       <c r="G11" s="8">
-        <v>859.178</v>
+        <v>569.16200000000003</v>
       </c>
       <c r="H11" s="8">
-        <v>1813431</v>
+        <v>1794202</v>
       </c>
       <c r="I11" s="8">
         <v>17</v>
@@ -9414,7 +13514,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8">
         <v>100000</v>
@@ -9430,10 +13530,10 @@
         <v>100000</v>
       </c>
       <c r="G12" s="8">
-        <v>169.761</v>
+        <v>131.339</v>
       </c>
       <c r="H12" s="8">
-        <v>181561</v>
+        <v>181388</v>
       </c>
       <c r="I12" s="8">
         <v>16</v>
@@ -9441,7 +13541,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8">
         <v>100000</v>
@@ -9457,10 +13557,10 @@
         <v>100000</v>
       </c>
       <c r="G13" s="9">
-        <v>246691</v>
+        <v>241.81299999999999</v>
       </c>
       <c r="H13" s="8">
-        <v>187086</v>
+        <v>180717</v>
       </c>
       <c r="I13" s="8">
         <v>17</v>
@@ -9468,7 +13568,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8">
         <v>100000</v>
@@ -9483,11 +13583,11 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G14" s="10">
-        <v>498.404</v>
+      <c r="G14" s="9">
+        <v>447.12799999999999</v>
       </c>
       <c r="H14" s="8">
-        <v>181768</v>
+        <v>181624</v>
       </c>
       <c r="I14" s="8">
         <v>18</v>
@@ -9495,7 +13595,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8">
         <v>100000</v>
@@ -9504,14 +13604,22 @@
         <f>C15</f>
         <v>100000</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="9">
+        <v>13775.066999999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>42570</v>
+      </c>
+      <c r="I15" s="8">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -9652,154 +13760,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="47" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="41" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9811,15 +13919,729 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8">
+        <f>C3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="8">
+        <v>999</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F7" si="0">C4</f>
+        <v>10000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.357</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12.286</v>
+      </c>
+      <c r="H5" s="8">
+        <v>99999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <f>C6</f>
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>112.55800000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>999999</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12">
+        <f>C7</f>
+        <v>10000000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1109.0129999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F15" si="1">C8</f>
+        <v>1000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>699</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>799</v>
+      </c>
+      <c r="I9" s="8">
+        <v>9</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="H10" s="8">
+        <v>699</v>
+      </c>
+      <c r="I10" s="8">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <f>C11</f>
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.224</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1599</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="8">
+        <v>250</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <f>C12</f>
+        <v>100000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.081</v>
+      </c>
+      <c r="H12" s="8">
+        <v>799</v>
+      </c>
+      <c r="I12" s="8">
+        <v>9</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>500</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>299</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.075</v>
+      </c>
+      <c r="H14" s="8">
+        <v>499</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="8">
+        <f>C15</f>
+        <v>100000</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.462</v>
+      </c>
+      <c r="H15" s="8">
+        <v>499</v>
+      </c>
+      <c r="I15" s="8">
+        <v>9</v>
+      </c>
+      <c r="J15" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
+    <cfRule type="cellIs" dxfId="61" priority="49" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="48" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="23">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Too long</t>
   </si>
 </sst>
 </file>
@@ -513,21 +519,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="132">
     <dxf>
       <fill>
         <patternFill>
@@ -1717,6 +1709,9 @@
                 <c:pt idx="8">
                   <c:v>99310</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1921,6 +1916,9 @@
                       <c:pt idx="8">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2113,7 +2111,7 @@
                         <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>100000</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2306,6 +2304,9 @@
                       <c:pt idx="8">
                         <c:v>446.04899999999998</c:v>
                       </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2496,6 +2497,9 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>78183</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2964,6 +2968,9 @@
                 <c:pt idx="11">
                   <c:v>446.04899999999998</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3198,6 +3205,9 @@
                       <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3420,7 +3430,7 @@
                         <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>100000</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3643,6 +3653,9 @@
                       <c:pt idx="11">
                         <c:v>78183</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3863,6 +3876,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>99310</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12555,7 +12571,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12566,7 +12582,7 @@
     <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
@@ -12932,14 +12948,21 @@
         <f>C15</f>
         <v>100000</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15" si="3">C15</f>
-        <v>100000</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -13080,138 +13103,138 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 E8 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="133" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="131" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="125" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 F12:F14">
-    <cfRule type="cellIs" dxfId="123" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="121" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="119" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="115" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="113" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="105" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13227,20 +13250,20 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -13760,154 +13783,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="99" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="93" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="87" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="81" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13923,21 +13946,21 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -14488,122 +14511,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E16:F27 F8:F10 E3:F3">
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7236" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="6" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>ITER_LIMIT</t>
   </si>
@@ -181,14 +181,19 @@
   <si>
     <t>greedy_h2_mem</t>
   </si>
+  <si>
+    <t>greedy_h3</t>
+  </si>
+  <si>
+    <t>greedy_h3_mem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -289,10 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +305,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -467,19 +500,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -494,20 +530,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Profundidade!$E$3:$H$3</c:f>
+              <c:f>Profundidade!$D$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1501.89</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -555,19 +594,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -582,20 +624,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Profundidade!$E$5:$H$5</c:f>
+              <c:f>Profundidade!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.89400000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>786.8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>993.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -645,19 +690,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -672,20 +720,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$E$3:$H$3</c:f>
+              <c:f>Largura!$D$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1848.38</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>6.89</c:v>
                 </c:pt>
               </c:numCache>
@@ -736,19 +787,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -763,20 +817,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$E$5:$H$5</c:f>
+              <c:f>Largura!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>0.80300000000000005</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1155.5899999999999</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>10.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -827,19 +884,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -854,17 +914,20 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$3:$H$3</c:f>
+              <c:f>Guloso!$D$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>0.112</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -914,19 +977,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -941,10 +1007,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$5:$H$5</c:f>
+              <c:f>Guloso!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>857.83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -993,19 +1071,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1020,10 +1101,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$7:$H$7</c:f>
+              <c:f>Guloso!$D$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1072,19 +1165,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1099,10 +1195,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$9:$H$9</c:f>
+              <c:f>Guloso!$D$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>955.82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1115,11 +1223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197733208"/>
-        <c:axId val="389805624"/>
+        <c:axId val="198458656"/>
+        <c:axId val="198475736"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="197733208"/>
+        <c:axId val="198458656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389805624"/>
+        <c:crossAx val="198475736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389805624"/>
+        <c:axId val="198475736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197733208"/>
+        <c:crossAx val="198458656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,9 +1468,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.28090931201167424"/>
-          <c:y val="0.38637242713081915"/>
-          <c:w val="0.45478901285987905"/>
-          <c:h val="0.4768840256303995"/>
+          <c:y val="0.3801699129714049"/>
+          <c:w val="0.47035640815168372"/>
+          <c:h val="0.53031974242086133"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -1409,19 +1517,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1436,20 +1547,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Profundidade!$E$4:$H$4</c:f>
+              <c:f>Profundidade!$D$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.88800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>15002.1</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1497,19 +1611,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1524,20 +1641,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Profundidade!$E$6:$H$6</c:f>
+              <c:f>Profundidade!$D$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>9.9410000000000007</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>7845.58</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>9935.0499999999993</c:v>
                 </c:pt>
               </c:numCache>
@@ -1585,19 +1705,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1612,20 +1735,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$E$4:$H$4</c:f>
+              <c:f>Largura!$D$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.96699999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>18435.939999999999</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1675,19 +1801,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1702,20 +1831,23 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$E$6:$H$6</c:f>
+              <c:f>Largura!$D$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>10.1</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>17658.98</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>13.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -1765,19 +1897,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1792,17 +1927,20 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$4:$H$4</c:f>
+              <c:f>Guloso!$D$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.000%">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.000">
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.127</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1852,19 +1990,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1879,10 +2020,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$6:$H$6</c:f>
+              <c:f>Guloso!$D$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>6.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5914.43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1931,19 +2084,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -1958,10 +2114,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$8:$H$8</c:f>
+              <c:f>Guloso!$D$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.722</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>10000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2010,19 +2178,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Largura!$F$2:$I$2</c:f>
+              <c:f>Largura!$E$2:$I$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Success Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Avg. Time (s)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Avg. Waiting Nodes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Avg. Max Depth</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Avg. Min H()</c:v>
                 </c:pt>
               </c:strCache>
@@ -2037,10 +2208,22 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Guloso!$E$10:$H$10</c:f>
+              <c:f>Guloso!$D$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>7227.07</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2053,11 +2236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="450598864"/>
-        <c:axId val="450597688"/>
+        <c:axId val="198586896"/>
+        <c:axId val="199007312"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="450598864"/>
+        <c:axId val="198586896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450597688"/>
+        <c:crossAx val="199007312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450597688"/>
+        <c:axId val="199007312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2314,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450598864"/>
+        <c:crossAx val="198586896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3616,7 +3799,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,19 +3814,19 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -3898,8 +4081,10 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -3915,7 +4100,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3925,9 +4110,9 @@
     <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -4017,7 +4202,7 @@
         <v>250</v>
       </c>
       <c r="E5" s="10">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="9">
         <v>0.80300000000000005</v>
@@ -4134,8 +4319,10 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -4148,23 +4335,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -4252,11 +4439,19 @@
       <c r="D5" s="8">
         <v>250</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.876</v>
+      </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="9">
+        <v>857.83</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.2200000000000002</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -4268,11 +4463,19 @@
       <c r="D6" s="8">
         <v>250</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6.6559999999999997</v>
+      </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="9">
+        <v>5914.43</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -4284,11 +4487,19 @@
       <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9.98</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -4300,11 +4511,19 @@
       <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.722</v>
+      </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -4316,11 +4535,19 @@
       <c r="D9" s="8">
         <v>250</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.01</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="9">
+        <v>955.82</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
@@ -4332,19 +4559,138 @@
       <c r="D10" s="8">
         <v>250</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.51</v>
+      </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
+      <c r="H10" s="9">
+        <v>7227.07</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>250</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>799.95</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>250</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8.3170000000000002</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>6793.86</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
+++ b/Trabalho 1/quebra_cabeca_8_pecas/Experiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjanuzi\Desktop\si2018\Trabalho 1\quebra_cabeca_8_pecas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjanuzi\Desktop\drive\03.Mestrado\2018\Semestre 2\Sistemas Inteligentes\si2018\Trabalho 1\quebra_cabeca_8_pecas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,54 +300,18 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -414,7 +378,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -925,7 +888,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.112</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
                   <c:v>1000</c:v>
@@ -1015,13 +978,13 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0%">
-                  <c:v>0.31</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.876</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>857.83</c:v>
+                  <c:v>832.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1075,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
                   <c:v>1000</c:v>
@@ -1206,10 +1169,10 @@
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1.01</c:v>
+                  <c:v>1.0149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>955.82</c:v>
+                  <c:v>955.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,11 +1186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198458656"/>
-        <c:axId val="198475736"/>
+        <c:axId val="179453080"/>
+        <c:axId val="179453472"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="198458656"/>
+        <c:axId val="179453080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198475736"/>
+        <c:crossAx val="179453472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198475736"/>
+        <c:axId val="179453472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1264,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198458656"/>
+        <c:crossAx val="179453080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1278,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1431,7 +1393,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,7 +1899,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1.127</c:v>
+                  <c:v>1.272</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
                   <c:v>10000</c:v>
@@ -2028,13 +1989,13 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0%">
-                  <c:v>0.47</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>6.6559999999999997</c:v>
+                  <c:v>5.7350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>5914.43</c:v>
+                  <c:v>5036.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +2086,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1.722</c:v>
+                  <c:v>1.7270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
                   <c:v>10000</c:v>
@@ -2216,13 +2177,13 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0%">
-                  <c:v>0.35</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>8.51</c:v>
+                  <c:v>9.3089999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>7227.07</c:v>
+                  <c:v>7899.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,11 +2197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198586896"/>
-        <c:axId val="199007312"/>
+        <c:axId val="179454256"/>
+        <c:axId val="179454648"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="198586896"/>
+        <c:axId val="179454256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199007312"/>
+        <c:crossAx val="179454648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199007312"/>
+        <c:axId val="179454648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2275,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198586896"/>
+        <c:crossAx val="179454256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,7 +2289,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3813,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3967,9 +3927,18 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="12">
+        <f>(F6-F4)/F4</f>
+        <v>10.19481981981982</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(G6-G4)/G4</f>
+        <v>-0.47703454849654381</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" ref="G8:H8" si="0">(H6-H4)/H4</f>
+        <v>-6.4950000000000728E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
@@ -3985,8 +3954,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -4099,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,9 +4222,18 @@
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="12">
+        <f>(F6-F4)/F4</f>
+        <v>9.4446742502585312</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(G6-G4)/G4</f>
+        <v>-4.2143769181283902E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <f>(H6-H4)/H4</f>
+        <v>0.49666666666666676</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -4275,7 +4252,10 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <f>POWER(3,H4)</f>
+        <v>19683</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -4285,7 +4265,10 @@
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <f>POWER(3,H6)</f>
+        <v>2671919.0789592504</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
@@ -4296,22 +4279,30 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
       <c r="F13" s="5"/>
+      <c r="G13" s="2">
+        <f>G11-G10</f>
+        <v>2652236.0789592504</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
+      <c r="G15" s="12">
+        <f>G13/G10</f>
+        <v>134.74755265758523</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:F11">
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="equal">
+  <conditionalFormatting sqref="E7:F7 E9:F11 E8">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4338,7 +4329,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B14" activeCellId="5" sqref="A4:XFD4 A6:XFD6 A8:XFD8 A10:XFD10 A12:XFD12 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4395,14 +4386,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>0.112</v>
+        <v>0.127</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9">
         <v>1000</v>
       </c>
       <c r="I3" s="9">
-        <v>7.93</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -4419,14 +4410,14 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>1.127</v>
+        <v>1.272</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <v>10000</v>
       </c>
       <c r="I4" s="9">
-        <v>7.98</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -4440,17 +4431,17 @@
         <v>250</v>
       </c>
       <c r="E5" s="10">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="F5" s="9">
-        <v>0.876</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9">
-        <v>857.83</v>
+        <v>832.78</v>
       </c>
       <c r="I5" s="9">
-        <v>2.2200000000000002</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -4464,14 +4455,14 @@
         <v>250</v>
       </c>
       <c r="E6" s="10">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F6" s="9">
-        <v>6.6559999999999997</v>
+        <v>5.7350000000000003</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
-        <v>5914.43</v>
+        <v>5036.03</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -4491,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>0.17199999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9">
@@ -4515,14 +4506,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>1.722</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9">
         <v>10000</v>
       </c>
       <c r="I8" s="9">
-        <v>9.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -4539,14 +4530,14 @@
         <v>0.09</v>
       </c>
       <c r="F9" s="9">
-        <v>1.01</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9">
-        <v>955.82</v>
+        <v>955.32</v>
       </c>
       <c r="I9" s="9">
-        <v>3.58</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -4560,17 +4551,17 @@
         <v>250</v>
       </c>
       <c r="E10" s="10">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="F10" s="9">
-        <v>8.51</v>
+        <v>9.3089999999999993</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9">
-        <v>7227.07</v>
+        <v>7899.41</v>
       </c>
       <c r="I10" s="9">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -4587,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="9">
-        <v>0.20100000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9">
@@ -4611,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>2.0409999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9">
@@ -4632,14 +4623,14 @@
         <v>250</v>
       </c>
       <c r="E13" s="10">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="F13" s="9">
-        <v>0.88200000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9">
-        <v>799.95</v>
+        <v>847.28</v>
       </c>
       <c r="I13" s="9">
         <v>5.32</v>
@@ -4656,17 +4647,17 @@
         <v>250</v>
       </c>
       <c r="E14" s="10">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="F14" s="9">
-        <v>8.3170000000000002</v>
+        <v>8.9550000000000001</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9">
-        <v>6793.86</v>
+        <v>7483.88</v>
       </c>
       <c r="I14" s="9">
-        <v>5.0199999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
